--- a/Table/client/lua/exe/temp/Z 战神套装基础属性.xlsx
+++ b/Table/client/lua/exe/temp/Z 战神套装基础属性.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835016BD-480B-49D0-A3E8-29A08944DD52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
   <si>
     <t>战神套装ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,16 +261,105 @@
   </si>
   <si>
     <t>1501040,20</t>
+  </si>
+  <si>
+    <t>盤龍聖甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈陽神鎧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡聖裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九玄靈衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴魔鎧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战神套装名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>반룡성갑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>열양신갑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>천강성장</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>구현영의</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>광폭마갑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,25 +402,35 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -351,6 +450,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -367,17 +472,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,346 +767,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10101</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="2">
         <v>8611</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>110101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>110102</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>110103</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>110104</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>14700</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>733</v>
-      </c>
-      <c r="O2">
-        <v>366</v>
       </c>
       <c r="P2">
         <v>366</v>
       </c>
       <c r="Q2">
+        <v>366</v>
+      </c>
+      <c r="R2">
         <v>9002002</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10201</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="2">
         <v>8612</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>120101</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>120102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>120103</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>120104</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>16160</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>806</v>
-      </c>
-      <c r="O3">
-        <v>403</v>
       </c>
       <c r="P3">
         <v>403</v>
       </c>
       <c r="Q3">
+        <v>403</v>
+      </c>
+      <c r="R3">
         <v>9004002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10301</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="2">
         <v>8613</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>130101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>130102</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>53</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>130103</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>130104</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>19360</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>968</v>
-      </c>
-      <c r="O4">
-        <v>484</v>
       </c>
       <c r="P4">
         <v>484</v>
       </c>
       <c r="Q4">
+        <v>484</v>
+      </c>
+      <c r="R4">
         <v>9003002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10401</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="2">
         <v>8614</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>140101</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>140102</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>57</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>140103</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>140104</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>59</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>25184</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1258</v>
-      </c>
-      <c r="O5">
-        <v>629</v>
       </c>
       <c r="P5">
         <v>629</v>
       </c>
       <c r="Q5">
+        <v>629</v>
+      </c>
+      <c r="R5">
         <v>9005002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10501</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="2">
         <v>8615</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>150101</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>150102</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>150103</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>62</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>150104</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>63</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>35284</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1761</v>
-      </c>
-      <c r="O6">
-        <v>880</v>
       </c>
       <c r="P6">
         <v>880</v>
       </c>
       <c r="Q6">
+        <v>880</v>
+      </c>
+      <c r="R6">
         <v>9006002</v>
       </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9797134D-4584-4DF6-BC7E-D059CE8001DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1034,19 +1161,19 @@
       </c>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>14000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>750</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>400</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>350</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f>D3*0.5+E3*10+F3*10+G3*10</f>
         <v>22000</v>
       </c>
@@ -1072,19 +1199,19 @@
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>15273</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>818</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>436</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>382</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H13" si="0">D4*0.5+E4*10+F4*10+G4*10</f>
         <v>23996.5</v>
       </c>
@@ -1118,19 +1245,19 @@
       </c>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>16545</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>886</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>473</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>414</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>26002.5</v>
       </c>
@@ -1164,19 +1291,19 @@
       </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>20364</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>1091</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>582</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>509</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>32002</v>
       </c>
@@ -1210,19 +1337,19 @@
       </c>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>22400</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>1200</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>640</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>560</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>35200</v>
       </c>
@@ -1256,19 +1383,19 @@
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>24436</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>1309</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>698</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>611</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>38398</v>
       </c>
@@ -1302,19 +1429,19 @@
       </c>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>26473</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>1418</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>756</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>662</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>41596.5</v>
       </c>
@@ -1348,19 +1475,19 @@
       </c>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>32582</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>1745</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>931</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>815</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>51201</v>
       </c>
@@ -1394,19 +1521,19 @@
       </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>35840</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>1920</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>1024</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>896</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>56320</v>
       </c>
@@ -1440,19 +1567,19 @@
       </c>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>39098</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>2095</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>1117</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>977</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>61439</v>
       </c>
@@ -1486,19 +1613,19 @@
       </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>42356</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>2269</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>1210</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>1059</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>66558</v>
       </c>
@@ -1558,7 +1685,7 @@
       <c r="D18">
         <v>10101</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18">
@@ -1585,7 +1712,7 @@
       <c r="D19">
         <v>10201</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G19">
@@ -1616,7 +1743,7 @@
       <c r="D20">
         <v>10301</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G20">
@@ -1647,7 +1774,7 @@
       <c r="D21">
         <v>10401</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G21">
@@ -1678,7 +1805,7 @@
       <c r="D22">
         <v>10501</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G22">
@@ -1713,7 +1840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1733,7 +1860,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
@@ -1755,7 +1882,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
@@ -1777,7 +1904,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
@@ -1799,7 +1926,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
@@ -1821,7 +1948,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
@@ -1846,7 +1973,7 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
@@ -1871,7 +1998,7 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
@@ -1896,7 +2023,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
@@ -1921,7 +2048,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
@@ -1943,7 +2070,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
@@ -1965,7 +2092,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
@@ -1987,7 +2114,7 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
@@ -2009,7 +2136,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
@@ -2031,7 +2158,7 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
@@ -2053,7 +2180,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
@@ -2075,7 +2202,7 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
@@ -2097,7 +2224,7 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
@@ -2119,7 +2246,7 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
@@ -2141,7 +2268,7 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F20" t="s">
@@ -2163,7 +2290,7 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
@@ -2184,7 +2311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Table/client/lua/exe/temp/Z 战神套装基础属性.xlsx
+++ b/Table/client/lua/exe/temp/Z 战神套装基础属性.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835016BD-480B-49D0-A3E8-29A08944DD52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>战神套装ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,105 +261,16 @@
   </si>
   <si>
     <t>1501040,20</t>
-  </si>
-  <si>
-    <t>盤龍聖甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈陽神鎧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡聖裝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九玄靈衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴魔鎧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战神套装名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>반룡성갑</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>열양신갑</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>천강성장</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>구현영의</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>광폭마갑</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,35 +313,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -450,12 +351,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -472,21 +367,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,364 +658,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10101</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="4">
         <v>8611</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>110101</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>110102</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>110103</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <v>110104</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>47</v>
       </c>
+      <c r="M2">
+        <v>14700</v>
+      </c>
       <c r="N2">
-        <v>14700</v>
+        <v>733</v>
       </c>
       <c r="O2">
-        <v>733</v>
+        <v>366</v>
       </c>
       <c r="P2">
         <v>366</v>
       </c>
       <c r="Q2">
-        <v>366</v>
-      </c>
-      <c r="R2">
         <v>9002002</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10201</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="4">
         <v>8612</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>120101</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>120102</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>120103</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>120104</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>51</v>
       </c>
+      <c r="M3">
+        <v>16160</v>
+      </c>
       <c r="N3">
-        <v>16160</v>
+        <v>806</v>
       </c>
       <c r="O3">
-        <v>806</v>
+        <v>403</v>
       </c>
       <c r="P3">
         <v>403</v>
       </c>
       <c r="Q3">
-        <v>403</v>
-      </c>
-      <c r="R3">
         <v>9004002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10301</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="4">
         <v>8613</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>130101</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>130102</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>130103</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>54</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>130104</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
+      <c r="M4">
+        <v>19360</v>
+      </c>
       <c r="N4">
-        <v>19360</v>
+        <v>968</v>
       </c>
       <c r="O4">
-        <v>968</v>
+        <v>484</v>
       </c>
       <c r="P4">
         <v>484</v>
       </c>
       <c r="Q4">
-        <v>484</v>
-      </c>
-      <c r="R4">
         <v>9003002</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10401</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D5" s="4">
         <v>8614</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>140101</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>140102</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>140103</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>140104</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
+      <c r="M5">
+        <v>25184</v>
+      </c>
       <c r="N5">
-        <v>25184</v>
+        <v>1258</v>
       </c>
       <c r="O5">
-        <v>1258</v>
+        <v>629</v>
       </c>
       <c r="P5">
         <v>629</v>
       </c>
       <c r="Q5">
-        <v>629</v>
-      </c>
-      <c r="R5">
         <v>9005002</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10501</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="4">
         <v>8615</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>150101</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>60</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>150102</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>61</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>150103</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>150104</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
+      <c r="M6">
+        <v>35284</v>
+      </c>
       <c r="N6">
-        <v>35284</v>
+        <v>1761</v>
       </c>
       <c r="O6">
-        <v>1761</v>
+        <v>880</v>
       </c>
       <c r="P6">
         <v>880</v>
       </c>
       <c r="Q6">
-        <v>880</v>
-      </c>
-      <c r="R6">
         <v>9006002</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1134,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9797134D-4584-4DF6-BC7E-D059CE8001DF}">
   <dimension ref="D2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1161,19 +1034,19 @@
       </c>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>14000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>750</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>400</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>350</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <f>D3*0.5+E3*10+F3*10+G3*10</f>
         <v>22000</v>
       </c>
@@ -1199,19 +1072,19 @@
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>15273</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>818</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>436</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>382</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H13" si="0">D4*0.5+E4*10+F4*10+G4*10</f>
         <v>23996.5</v>
       </c>
@@ -1245,19 +1118,19 @@
       </c>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>16545</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>886</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>473</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>414</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>26002.5</v>
       </c>
@@ -1291,19 +1164,19 @@
       </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>20364</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>1091</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>582</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>509</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>32002</v>
       </c>
@@ -1337,19 +1210,19 @@
       </c>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>22400</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>1200</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>640</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>560</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>35200</v>
       </c>
@@ -1383,19 +1256,19 @@
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>24436</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>1309</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>698</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>611</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>38398</v>
       </c>
@@ -1429,19 +1302,19 @@
       </c>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>26473</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>1418</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>756</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>662</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>41596.5</v>
       </c>
@@ -1475,19 +1348,19 @@
       </c>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>32582</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>1745</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>931</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>815</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>51201</v>
       </c>
@@ -1521,19 +1394,19 @@
       </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>35840</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>1920</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>1024</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>896</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>56320</v>
       </c>
@@ -1567,19 +1440,19 @@
       </c>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>39098</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>2095</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>1117</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>977</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>61439</v>
       </c>
@@ -1613,19 +1486,19 @@
       </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>42356</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>2269</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>1210</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>1059</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>66558</v>
       </c>
@@ -1685,7 +1558,7 @@
       <c r="D18">
         <v>10101</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G18">
@@ -1712,7 +1585,7 @@
       <c r="D19">
         <v>10201</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G19">
@@ -1743,7 +1616,7 @@
       <c r="D20">
         <v>10301</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G20">
@@ -1774,7 +1647,7 @@
       <c r="D21">
         <v>10401</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G21">
@@ -1805,7 +1678,7 @@
       <c r="D22">
         <v>10501</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G22">
@@ -1840,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1860,7 +1733,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
@@ -1882,7 +1755,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
@@ -1904,7 +1777,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
@@ -1926,7 +1799,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
@@ -1948,7 +1821,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
@@ -1973,7 +1846,7 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
@@ -1998,7 +1871,7 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
@@ -2023,7 +1896,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
@@ -2048,7 +1921,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
@@ -2070,7 +1943,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
@@ -2092,7 +1965,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
@@ -2114,7 +1987,7 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
@@ -2136,7 +2009,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
@@ -2158,7 +2031,7 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
@@ -2180,7 +2053,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
@@ -2202,7 +2075,7 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
@@ -2224,7 +2097,7 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
@@ -2246,7 +2119,7 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
@@ -2268,7 +2141,7 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F20" t="s">
@@ -2290,7 +2163,7 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
@@ -2311,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C11:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
